--- a/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>87425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73285</v>
+        <v>72705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104257</v>
+        <v>104300</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1511154266746289</v>
+        <v>0.151115426674629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1266751354261521</v>
+        <v>0.1256728729135839</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.180210553850066</v>
+        <v>0.1802843674217684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>292</v>
@@ -762,19 +762,19 @@
         <v>176517</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158057</v>
+        <v>159264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195125</v>
+        <v>196728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2149201074741701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1924438318123019</v>
+        <v>0.1939134450121095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.237576594391498</v>
+        <v>0.2395277882566656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>405</v>
@@ -783,19 +783,19 @@
         <v>263942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>242676</v>
+        <v>237990</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>294934</v>
+        <v>288470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1885508334371215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1733594985676956</v>
+        <v>0.1700115043337563</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2106904235089873</v>
+        <v>0.2060731198950046</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>61888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50528</v>
+        <v>49250</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76912</v>
+        <v>75414</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1069745157574479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08733933644033391</v>
+        <v>0.08513029031960037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1329438027854697</v>
+        <v>0.1303553848123207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -833,19 +833,19 @@
         <v>135689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119167</v>
+        <v>119041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152015</v>
+        <v>150141</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1652098388029782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.145093085744237</v>
+        <v>0.1449400905496161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1850876458777208</v>
+        <v>0.1828058804401491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>333</v>
@@ -854,19 +854,19 @@
         <v>197577</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174774</v>
+        <v>176328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>217547</v>
+        <v>216208</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1411422755336282</v>
+        <v>0.1411422755336281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1248523106260446</v>
+        <v>0.1259628187277006</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1554079065054479</v>
+        <v>0.1544510419688771</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>86414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69794</v>
+        <v>72064</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102663</v>
+        <v>103345</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1493686702043105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1206406487237534</v>
+        <v>0.1245647729912468</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1774551581520269</v>
+        <v>0.1786338119321766</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -904,19 +904,19 @@
         <v>179361</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163054</v>
+        <v>162629</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>197429</v>
+        <v>197434</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2183829923114021</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1985278087573595</v>
+        <v>0.1980104703499531</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2403815589345229</v>
+        <v>0.2403882674498338</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -925,19 +925,19 @@
         <v>265776</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>241606</v>
+        <v>242916</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>290721</v>
+        <v>289661</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1898606715456171</v>
+        <v>0.189860671545617</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1725951357814348</v>
+        <v>0.1735305054716726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2076810680746028</v>
+        <v>0.2069236082242248</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>342802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>319627</v>
+        <v>318872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>363832</v>
+        <v>365356</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5925413873636128</v>
+        <v>0.5925413873636127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5524826699811662</v>
+        <v>0.5511766028480785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6288910809040958</v>
+        <v>0.6315256553659661</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>545</v>
@@ -975,19 +975,19 @@
         <v>329747</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>308591</v>
+        <v>309869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>352314</v>
+        <v>352477</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4014870614114495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3757281665174663</v>
+        <v>0.377284237493543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4289630620873302</v>
+        <v>0.4291612439176132</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>928</v>
@@ -996,19 +996,19 @@
         <v>672550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>640796</v>
+        <v>641594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>705643</v>
+        <v>708472</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4804462194836334</v>
+        <v>0.4804462194836333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4577620819881899</v>
+        <v>0.458331816444143</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.504086191518585</v>
+        <v>0.5061075913685181</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>161217</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>135533</v>
+        <v>139579</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>189571</v>
+        <v>187929</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07231147815415621</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06079115005168101</v>
+        <v>0.06260598980598119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08502894157960461</v>
+        <v>0.08429273761495386</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>256</v>
@@ -1121,19 +1121,19 @@
         <v>175332</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>154787</v>
+        <v>155191</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>199334</v>
+        <v>199252</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08074624048299803</v>
+        <v>0.080746240482998</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07128465163635143</v>
+        <v>0.07147056848236286</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09179987174594768</v>
+        <v>0.09176254843909612</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>423</v>
@@ -1142,19 +1142,19 @@
         <v>336549</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>305437</v>
+        <v>303635</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>375410</v>
+        <v>373018</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07647318908518014</v>
+        <v>0.07647318908518015</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06940356686039174</v>
+        <v>0.06899418428083655</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08530336500183049</v>
+        <v>0.0847599369063279</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>141326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120224</v>
+        <v>120315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169587</v>
+        <v>167208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06338948476369999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05392456335773525</v>
+        <v>0.05396523574392502</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07606569099884672</v>
+        <v>0.07499835950746792</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>329</v>
@@ -1192,19 +1192,19 @@
         <v>223108</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199823</v>
+        <v>199359</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>251299</v>
+        <v>249715</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1027488193619787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09202509089996261</v>
+        <v>0.09181174010093135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1157318646146473</v>
+        <v>0.1150024553506257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>474</v>
@@ -1213,19 +1213,19 @@
         <v>364434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333600</v>
+        <v>331140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400237</v>
+        <v>400943</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08280937671197464</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0758030335190075</v>
+        <v>0.07524410621107983</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09094486580696766</v>
+        <v>0.09110528394559055</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>363831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327958</v>
+        <v>328277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>402044</v>
+        <v>404266</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1631906751886835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1471002434346668</v>
+        <v>0.1472434652233831</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1803306289270733</v>
+        <v>0.1813269278241181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>691</v>
@@ -1263,19 +1263,19 @@
         <v>429517</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>397570</v>
+        <v>396664</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463132</v>
+        <v>462353</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.197807111201615</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1830943155027434</v>
+        <v>0.1826772608766541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2132881992146123</v>
+        <v>0.212929413611094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1083</v>
@@ -1284,19 +1284,19 @@
         <v>793348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>748032</v>
+        <v>749130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>844777</v>
+        <v>844176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1802704214259304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1699734901819127</v>
+        <v>0.1702228840298144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1919564657525694</v>
+        <v>0.1918200079569571</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1563111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1515570</v>
+        <v>1514628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1608351</v>
+        <v>1608706</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7011083618934604</v>
+        <v>0.7011083618934603</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6797847124981877</v>
+        <v>0.6793620524434382</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7214004404379146</v>
+        <v>0.7215595034706405</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1645</v>
@@ -1334,19 +1334,19 @@
         <v>1343436</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1300576</v>
+        <v>1299946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1383709</v>
+        <v>1383072</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6186978289534083</v>
+        <v>0.6186978289534082</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5989594751096985</v>
+        <v>0.598669415764523</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.637245346484944</v>
+        <v>0.6369518901536102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2932</v>
@@ -1355,19 +1355,19 @@
         <v>2906546</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2844741</v>
+        <v>2845370</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2971351</v>
+        <v>2965707</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6604470127769146</v>
+        <v>0.6604470127769148</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6464032321392748</v>
+        <v>0.6465461791176822</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6751723985362562</v>
+        <v>0.6738900619066962</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>43710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31747</v>
+        <v>31867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59264</v>
+        <v>59116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06151162254821579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04467668655603706</v>
+        <v>0.04484559078096011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08340062498049296</v>
+        <v>0.08319184864426601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1480,19 +1480,19 @@
         <v>47511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37070</v>
+        <v>36827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60665</v>
+        <v>60908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06465192578844407</v>
+        <v>0.06465192578844409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0504435024593057</v>
+        <v>0.050113055353604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08255172512496579</v>
+        <v>0.08288214044893449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -1501,19 +1501,19 @@
         <v>91221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73861</v>
+        <v>74768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110711</v>
+        <v>113072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.063108146233593</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05109796991113653</v>
+        <v>0.05172571747651356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07659164409196942</v>
+        <v>0.07822448057757288</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>49009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>34408</v>
+        <v>34264</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>68317</v>
+        <v>69151</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06896897766786787</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04842133911284417</v>
+        <v>0.04821781265281064</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09613971356147584</v>
+        <v>0.09731361568960209</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>88</v>
@@ -1551,19 +1551,19 @@
         <v>61507</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49824</v>
+        <v>48689</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76528</v>
+        <v>76322</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08369744334575289</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06779871762849002</v>
+        <v>0.06625425677247569</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1041372514296572</v>
+        <v>0.103856453776043</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>130</v>
@@ -1572,19 +1572,19 @@
         <v>110517</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>92179</v>
+        <v>91973</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>134687</v>
+        <v>133406</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07645689921722093</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06377061939482301</v>
+        <v>0.06362817341386467</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0931782867500142</v>
+        <v>0.09229178293925731</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>135043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114480</v>
+        <v>116750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>156376</v>
+        <v>157572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1900408070430263</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1611038323722213</v>
+        <v>0.1642979079056106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2200626243210582</v>
+        <v>0.2217455816424538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -1622,19 +1622,19 @@
         <v>158563</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141104</v>
+        <v>140019</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>177224</v>
+        <v>177900</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2157686683728734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1920098418286369</v>
+        <v>0.1905340911370801</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2411618221751783</v>
+        <v>0.2420810162535889</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>402</v>
@@ -1643,19 +1643,19 @@
         <v>293606</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>267278</v>
+        <v>265799</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>325254</v>
+        <v>322016</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2031207986377919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.184906716860699</v>
+        <v>0.1838835664733596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.225015114157969</v>
+        <v>0.2227745809434148</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>482837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>457213</v>
+        <v>457543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509379</v>
+        <v>506791</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6794785927408902</v>
+        <v>0.6794785927408903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6434192593876644</v>
+        <v>0.6438829293176962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7168307236477717</v>
+        <v>0.7131887882860646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>599</v>
@@ -1693,19 +1693,19 @@
         <v>467295</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443411</v>
+        <v>444202</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>488913</v>
+        <v>489680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6358819624929295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6033814876227339</v>
+        <v>0.6044582830579095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6652989499479097</v>
+        <v>0.6663430305362646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1045</v>
@@ -1714,19 +1714,19 @@
         <v>950132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>913146</v>
+        <v>912252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>983320</v>
+        <v>984228</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6573141559113942</v>
+        <v>0.6573141559113943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6317262095808512</v>
+        <v>0.6311077673968221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.680273475925815</v>
+        <v>0.6809020063999162</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>292352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>261710</v>
+        <v>258519</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>325633</v>
+        <v>324292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08308732389450607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07437862822600008</v>
+        <v>0.07347196896751118</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09254581126421338</v>
+        <v>0.09216468056182885</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>613</v>
@@ -1839,19 +1839,19 @@
         <v>399360</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>368961</v>
+        <v>371600</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>432595</v>
+        <v>431089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1071364351973526</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09898128949331496</v>
+        <v>0.09968916279202775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.116052479318735</v>
+        <v>0.1156483357388447</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>935</v>
@@ -1860,19 +1860,19 @@
         <v>691712</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>644929</v>
+        <v>645131</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>736894</v>
+        <v>737794</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0954586528156716</v>
+        <v>0.09545865281567162</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08900237621098916</v>
+        <v>0.08903024626341079</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1016938439635098</v>
+        <v>0.1018180381319341</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>252223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221747</v>
+        <v>222128</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289192</v>
+        <v>286002</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07168252648654788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0630211749010747</v>
+        <v>0.06312955574366491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08218910954383973</v>
+        <v>0.08128273364082896</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>665</v>
@@ -1910,19 +1910,19 @@
         <v>420305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>385354</v>
+        <v>388878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>454479</v>
+        <v>453214</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1127552342056732</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1033790545893044</v>
+        <v>0.1043243238419987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1219230775418881</v>
+        <v>0.1215839218194463</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>937</v>
@@ -1931,19 +1931,19 @@
         <v>672528</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>627321</v>
+        <v>628382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>718626</v>
+        <v>719966</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09281112331815104</v>
+        <v>0.09281112331815106</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08657240850291008</v>
+        <v>0.0867188696658351</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09917281835988521</v>
+        <v>0.0993578148380071</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>585288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>543289</v>
+        <v>541233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>631768</v>
+        <v>632738</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.166340565944031</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1544043928465506</v>
+        <v>0.1538200821808678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.179550371238469</v>
+        <v>0.1798259699090138</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1284</v>
@@ -1981,19 +1981,19 @@
         <v>767442</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>727715</v>
+        <v>729894</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>812810</v>
+        <v>814201</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2058817297083569</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.195224312914526</v>
+        <v>0.1958088504961269</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2180527053416779</v>
+        <v>0.2184259904097697</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1936</v>
@@ -2002,19 +2002,19 @@
         <v>1352730</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1294394</v>
+        <v>1291628</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1409432</v>
+        <v>1418463</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1866813068842688</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1786307761974711</v>
+        <v>0.1782490001324651</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1945064380528411</v>
+        <v>0.1957526812967486</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2388750</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2326408</v>
+        <v>2330579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2445183</v>
+        <v>2444951</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6788895836749151</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6611718175736266</v>
+        <v>0.6623573538869001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6949280266030239</v>
+        <v>0.6948620156970482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2789</v>
@@ -2052,19 +2052,19 @@
         <v>2140478</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2084851</v>
+        <v>2087329</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2194988</v>
+        <v>2191584</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5742266008886173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5593035111022733</v>
+        <v>0.5599681451198246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5888499654948234</v>
+        <v>0.5879367416289747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4905</v>
@@ -2073,19 +2073,19 @@
         <v>4529228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4449976</v>
+        <v>4440281</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4606348</v>
+        <v>4605021</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6250489169819087</v>
+        <v>0.6250489169819083</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6141118051554741</v>
+        <v>0.6127738474065071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.635691710466798</v>
+        <v>0.6355085569441975</v>
       </c>
     </row>
     <row r="23">
